--- a/biology/Médecine/Quinupristine-dalfopristine/Quinupristine-dalfopristine.xlsx
+++ b/biology/Médecine/Quinupristine-dalfopristine/Quinupristine-dalfopristine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Combinaison des deux antibiotiques, la quinupristine, dérivé de la pristinamycine I (streptogramine du groupe B) et la dalfopristine, dérivé de la pristinamycine II (streptogramine du groupe A). Il s'agit de médicaments de la classe d'antibiotique des streptogramines. La dénomination commerciale en Amérique du nord est le Synercid.
@@ -512,7 +524,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux antibiotiques sont bactériostatiques. La combinaison des 2 va donner une activité bactéricide, sauf pour Enterococcus faecium pour qui reste une action bactériostatique.
 Le médicament va inhiber les phases précoces et tardives de la synthèse des protéines bactériennes. Il y a un complexe stable qui se forme avec la sous-unité 50S ribosomique bactérienne, ce qui procure l'activité bactéricide.
@@ -544,7 +558,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Infections graves d'Enterococcus faecium résistants à la vancomycine.
 Infections compliquées de la peau et des tissus mous à Staph aureus sensible à l'oxacilline/methycilline/cloxacilline et à Streptococcus pyogenes.</t>
@@ -575,7 +591,9 @@
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La quinupristine-dalfopristine est un substrat à haute affinité du CYP3A4 et peut inhiber le métabolisme de substances à plus faible affinité pour ce cytochrome :
 hausse des concentrations plasmatiques de ciclosporine ;
@@ -610,7 +628,9 @@
           <t>Spectre d'activité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bactéries gram positif sensibles : Enterococcus faecium, Staphylococcus aureus, Staphylococcus epidermidis, Streptococcus pyogenes, Streptococcus pneumoniae
 Bactéries gram négatif sensibles : Legionella spp., Moraxella catarrhalis, Neisseria spp.
@@ -642,7 +662,9 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Temps de demi-vie : entre 0,75 et 1 heure
 Volume de distribution de 1 L·kg-1
@@ -674,7 +696,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Maux de tête
 troubles du tractus gastro-intestinal : nausées, diarrhée, vomissement
@@ -708,7 +732,9 @@
           <t>Contre-indication</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Grossesse, allaitement, et chez les moins de 18 ans.
 </t>
@@ -739,7 +765,9 @@
           <t>Administration</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rapport de la dose est de 70:30 pour la dalfopristine et la quinupristine, respectivement.
 Injection IV : 7,5 mg·kg-1 tous les 8-12 heures.
